--- a/biology/Microbiologie/Endosphaeriidae/Endosphaeriidae.xlsx
+++ b/biology/Microbiologie/Endosphaeriidae/Endosphaeriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Endosphaeriidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Endosphaera, dérivé du grec ενδο / endo-, « intérieur », et -sphaer-, « sphère », en référence à la forme de l'organisme et à sa vie à l'intérieur d'un hôte. 
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Endosphaera est sphérique sans lorica (loge) ; sans tentacules ; endogène bourgeonnant ; les essaims ont trois bandes ciliaires équatoriales. C'est un parasite des péritriches[2].
-L'espèce E. engelmanni mesure 15 à 41 μm de diamètre. Elle s'intègre dans le cytoplasme de l'hôte. Ses essaims font entre 13 et 19 μm de diamètre. Elle parasite notamment Opisthonecta henneguyi (autre cilié de la famille des Opisthonectidae) mais aussi d'autres péritriches[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Endosphaera est sphérique sans lorica (loge) ; sans tentacules ; endogène bourgeonnant ; les essaims ont trois bandes ciliaires équatoriales. C'est un parasite des péritriches.
+L'espèce E. engelmanni mesure 15 à 41 μm de diamètre. Elle s'intègre dans le cytoplasme de l'hôte. Ses essaims font entre 13 et 19 μm de diamètre. Elle parasite notamment Opisthonecta henneguyi (autre cilié de la famille des Opisthonectidae) mais aussi d'autres péritriches.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Endosphaera se rencontre aussi bien en eau douce que salée[2].
-Les genres Endosphaera et Parendosphaera sont des parasites intracellulaires des ciliés et des mollusques ; le genre Acoelophthirius est un parasite du parenchyme de vers turbellariés[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Endosphaera se rencontre aussi bien en eau douce que salée.
+Les genres Endosphaera et Parendosphaera sont des parasites intracellulaires des ciliés et des mollusques ; le genre Acoelophthirius est un parasite du parenchyme de vers turbellariés. 
 </t>
         </is>
       </c>
@@ -606,12 +624,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 mai 2023)[3] :
-Acoelophthirius Jankowski, 1981 nomen nudum (par absence de description ou de figure chez Jankowski)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 mai 2023) :
+Acoelophthirius Jankowski, 1981 nomen nudum (par absence de description ou de figure chez Jankowski).
 Espèce type : Acoelophthirius cronifer Jankowski, 1981
-Selon Igor Dovgal (2002) [1] :
+Selon Igor Dovgal (2002)  :
 Endosphaera Engelmann, 1876
 Espèce type : Endosphaera engelmanni Entz, 1896
 Parendosphaera Jankowski, 1981
@@ -645,9 +665,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Endosphaeriidae Jankowski, 1978[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Endosphaeriidae Jankowski, 1978.
 </t>
         </is>
       </c>
